--- a/AB020_機能設計書/BB020_テーブル設計書/BB020000_テンプレート.xlsx
+++ b/AB020_機能設計書/BB020_テーブル設計書/BB020000_テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C8B52-89DF-4146-98F5-9F578BE6F703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75440267-A8EA-4456-B73F-AD3954D0DB82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="9816" windowWidth="13056" windowHeight="7368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$H$21</definedName>
-    <definedName name="論理型">型!$B$2:$B$10</definedName>
+    <definedName name="論理型">型!$B$2:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -346,20 +346,6 @@
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時型</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIMEOFFSET</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -805,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -813,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -920,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1">
         <v>19</v>
@@ -1522,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F4701B-7253-42DD-B7B4-35669B2F6A16}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1559,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -1570,7 +1556,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A9" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1607,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -1619,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -1649,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -1664,27 +1650,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
